--- a/time-table.xlsx
+++ b/time-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Backend</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Frontend (Daniil)</t>
+  </si>
+  <si>
+    <t>General time on development:</t>
   </si>
 </sst>
 </file>
@@ -120,13 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -501,6 +505,9 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="4">
+        <v>6.9699074074074066E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -525,6 +532,15 @@
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <f>SUM(B3:B9)</f>
+        <v>0.25224537037037037</v>
       </c>
     </row>
   </sheetData>
